--- a/analyses/2018_data/2018_CG_datasheet.xlsx
+++ b/analyses/2018_data/2018_CG_datasheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018_CG_datasheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="306">
   <si>
     <t>data is currently longform with each column an obsrevation day</t>
   </si>
@@ -39,9 +39,6 @@
     <t>"-M" indicates male flowers, "-F" indicates female</t>
   </si>
   <si>
-    <t>Observarions follow bbch scale</t>
-  </si>
-  <si>
     <t>Ind</t>
   </si>
   <si>
@@ -937,6 +934,18 @@
   </si>
   <si>
     <t>BETALL07_SH</t>
+  </si>
+  <si>
+    <t>Observations follow bbch scale</t>
+  </si>
+  <si>
+    <t>Yellow indicates wrong plant is planted</t>
+  </si>
+  <si>
+    <t>Green - planted from RB in 2018</t>
+  </si>
+  <si>
+    <t>Blue - moved from another plot</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
@@ -1301,10 +1310,10 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="2">
         <v>43158</v>
@@ -1316,58 +1325,58 @@
         <v>43182</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="1">
         <v>4.17</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1382,7 +1391,7 @@
     </row>
     <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1455,7 +1464,7 @@
     </row>
     <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1512,7 +1521,7 @@
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1571,7 +1580,7 @@
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1624,7 +1633,7 @@
     </row>
     <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1681,7 +1690,7 @@
     </row>
     <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1690,7 +1699,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>7</v>
@@ -1750,7 +1759,7 @@
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1803,7 +1812,7 @@
     </row>
     <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1831,13 +1840,13 @@
         <v>9</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1856,7 +1865,7 @@
     </row>
     <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1907,7 +1916,7 @@
     </row>
     <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1960,7 +1969,7 @@
     </row>
     <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2013,7 +2022,7 @@
     </row>
     <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2064,7 +2073,7 @@
     </row>
     <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2074,7 +2083,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2095,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2115,7 +2124,7 @@
     </row>
     <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -2164,7 +2173,7 @@
     </row>
     <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2276,26 +2285,26 @@
     </row>
     <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2341,19 +2350,19 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2376,13 +2385,13 @@
         <v>11</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2402,7 +2411,7 @@
     </row>
     <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2426,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1">
         <v>17</v>
@@ -2455,13 +2464,13 @@
     </row>
     <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2522,7 +2531,7 @@
     </row>
     <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2581,7 +2590,7 @@
     </row>
     <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -2632,19 +2641,19 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2695,7 +2704,7 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -2752,7 +2761,7 @@
     </row>
     <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -2809,7 +2818,7 @@
     </row>
     <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2818,7 +2827,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2852,7 +2861,7 @@
     </row>
     <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -2909,7 +2918,7 @@
     </row>
     <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2948,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="T29" s="1">
         <v>67</v>
@@ -2976,7 +2985,7 @@
     </row>
     <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -3039,19 +3048,19 @@
     </row>
     <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3074,13 +3083,13 @@
         <v>11</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="1">
         <v>17</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3100,7 +3109,7 @@
     </row>
     <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -3137,7 +3146,7 @@
         <v>19</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3157,7 +3166,7 @@
     </row>
     <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -3187,16 +3196,16 @@
         <v>11</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S33" s="1">
         <v>69</v>
@@ -3224,7 +3233,7 @@
     </row>
     <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -3237,7 +3246,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" s="1">
         <v>7</v>
@@ -3281,7 +3290,7 @@
     </row>
     <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -3320,7 +3329,7 @@
     </row>
     <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -3379,7 +3388,7 @@
     </row>
     <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -3434,7 +3443,7 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -3466,16 +3475,16 @@
         <v>11</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S38" s="1">
         <v>69</v>
@@ -3503,7 +3512,7 @@
     </row>
     <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -3617,7 +3626,7 @@
     </row>
     <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -3727,7 +3736,7 @@
     </row>
     <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -3737,12 +3746,12 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
@@ -3784,7 +3793,7 @@
     </row>
     <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -3797,7 +3806,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44" s="1">
         <v>9</v>
@@ -3841,7 +3850,7 @@
     </row>
     <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -3871,16 +3880,16 @@
         <v>11</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S45" s="1">
         <v>69</v>
@@ -3908,7 +3917,7 @@
     </row>
     <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -3959,7 +3968,7 @@
     </row>
     <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -4014,7 +4023,7 @@
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -4027,10 +4036,10 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L48" s="1">
         <v>9</v>
@@ -4071,7 +4080,7 @@
     </row>
     <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -4122,7 +4131,7 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -4136,7 +4145,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L50" s="1">
         <v>9</v>
@@ -4177,7 +4186,7 @@
     </row>
     <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -4186,7 +4195,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -4218,7 +4227,7 @@
     </row>
     <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -4273,7 +4282,7 @@
     </row>
     <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -4287,7 +4296,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L53" s="1">
         <v>7</v>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -4379,7 +4388,7 @@
     </row>
     <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -4434,7 +4443,7 @@
     </row>
     <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -4489,7 +4498,7 @@
     </row>
     <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -4550,7 +4559,7 @@
     </row>
     <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -4587,19 +4596,19 @@
         <v>15</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S58" s="1">
         <v>69</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -4617,7 +4626,7 @@
     </row>
     <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -4678,7 +4687,7 @@
     </row>
     <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -4686,28 +4695,28 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="M60" s="1">
         <v>69</v>
@@ -4745,7 +4754,7 @@
     </row>
     <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -4778,13 +4787,13 @@
         <v>15</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="S61" s="1">
         <v>62</v>
@@ -4814,7 +4823,7 @@
     </row>
     <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
@@ -4853,7 +4862,7 @@
     </row>
     <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
@@ -4862,7 +4871,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1">
         <v>10</v>
@@ -4918,7 +4927,7 @@
     </row>
     <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
@@ -4958,7 +4967,7 @@
         <v>17</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R64" s="1">
         <v>19</v>
@@ -4981,38 +4990,38 @@
     </row>
     <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M65" s="1">
         <v>69</v>
@@ -5050,7 +5059,7 @@
     </row>
     <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="1">
         <v>4</v>
@@ -5099,7 +5108,7 @@
     </row>
     <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1">
         <v>4</v>
@@ -5162,7 +5171,7 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -5223,7 +5232,7 @@
     </row>
     <row r="69" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -5284,7 +5293,7 @@
     </row>
     <row r="70" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
@@ -5333,7 +5342,7 @@
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
@@ -5396,7 +5405,7 @@
     </row>
     <row r="72" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
@@ -5457,7 +5466,7 @@
     </row>
     <row r="73" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
@@ -5466,7 +5475,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1">
         <v>7</v>
@@ -5487,7 +5496,7 @@
         <v>11</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N73" s="1">
         <v>11</v>
@@ -5522,7 +5531,7 @@
     </row>
     <row r="74" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
@@ -5585,7 +5594,7 @@
     </row>
     <row r="75" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -5608,13 +5617,13 @@
         <v>11</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S75" s="1">
         <v>67</v>
@@ -5638,7 +5647,7 @@
     </row>
     <row r="76" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
@@ -5701,7 +5710,7 @@
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
@@ -5756,7 +5765,7 @@
     </row>
     <row r="78" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
@@ -5788,10 +5797,10 @@
         <v>17</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S78" s="1">
         <v>51</v>
@@ -5821,7 +5830,7 @@
     </row>
     <row r="79" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -5872,7 +5881,7 @@
     </row>
     <row r="80" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
@@ -5907,13 +5916,13 @@
         <v>15</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S80" s="1">
         <v>65</v>
@@ -5943,7 +5952,7 @@
     </row>
     <row r="81" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
@@ -6004,7 +6013,7 @@
     </row>
     <row r="82" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -6065,7 +6074,7 @@
     </row>
     <row r="83" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1">
         <v>4</v>
@@ -6088,7 +6097,7 @@
         <v>11</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q83" s="1">
         <v>19</v>
@@ -6114,7 +6123,7 @@
     </row>
     <row r="84" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -6177,7 +6186,7 @@
     </row>
     <row r="85" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
@@ -6240,7 +6249,7 @@
     </row>
     <row r="86" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
@@ -6303,7 +6312,7 @@
     </row>
     <row r="87" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
@@ -6360,7 +6369,7 @@
     </row>
     <row r="88" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1">
         <v>4</v>
@@ -6409,7 +6418,7 @@
     </row>
     <row r="89" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -6472,7 +6481,7 @@
     </row>
     <row r="90" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -6535,7 +6544,7 @@
     </row>
     <row r="91" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
@@ -6598,7 +6607,7 @@
     </row>
     <row r="92" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -6608,22 +6617,22 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M92" s="1">
         <v>67</v>
@@ -6661,7 +6670,7 @@
     </row>
     <row r="93" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
@@ -6674,7 +6683,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K93" s="1">
         <v>9</v>
@@ -6692,13 +6701,13 @@
         <v>11</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S93" s="1">
         <v>51</v>
@@ -6728,7 +6737,7 @@
     </row>
     <row r="94" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="1">
         <v>4</v>
@@ -6777,7 +6786,7 @@
     </row>
     <row r="95" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
@@ -6786,7 +6795,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95" s="1">
         <v>7</v>
@@ -6840,7 +6849,7 @@
     </row>
     <row r="96" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
@@ -6849,7 +6858,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1">
@@ -6903,7 +6912,7 @@
     </row>
     <row r="97" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
@@ -6942,7 +6951,7 @@
     </row>
     <row r="98" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
@@ -6983,7 +6992,7 @@
     </row>
     <row r="99" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -6992,7 +7001,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G99" s="1">
         <v>7</v>
@@ -7046,7 +7055,7 @@
     </row>
     <row r="100" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -7055,17 +7064,17 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K100" s="1">
         <v>11</v>
@@ -7109,7 +7118,7 @@
     </row>
     <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="1">
         <v>5</v>
@@ -7118,7 +7127,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101" s="1">
         <v>7</v>
@@ -7178,7 +7187,7 @@
     </row>
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
@@ -7239,7 +7248,7 @@
     </row>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="1">
         <v>5</v>
@@ -7300,7 +7309,7 @@
     </row>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" s="1">
         <v>5</v>
@@ -7309,7 +7318,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -7329,16 +7338,16 @@
         <v>17</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V104" s="1" t="s">
+      <c r="W104" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="W104" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
@@ -7353,7 +7362,7 @@
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" s="1">
         <v>5</v>
@@ -7383,16 +7392,16 @@
         <v>11</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S105" s="1">
         <v>69</v>
@@ -7420,7 +7429,7 @@
     </row>
     <row r="106" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
@@ -7469,7 +7478,7 @@
     </row>
     <row r="107" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="1">
         <v>5</v>
@@ -7526,7 +7535,7 @@
     </row>
     <row r="108" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="1">
         <v>5</v>
@@ -7583,7 +7592,7 @@
     </row>
     <row r="109" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1">
         <v>5</v>
@@ -7636,7 +7645,7 @@
     </row>
     <row r="110" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" s="1">
         <v>5</v>
@@ -7666,16 +7675,16 @@
         <v>11</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S110" s="1">
         <v>69</v>
@@ -7703,7 +7712,7 @@
     </row>
     <row r="111" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" s="1">
         <v>5</v>
@@ -7733,16 +7742,16 @@
         <v>11</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S111" s="1">
         <v>69</v>
@@ -7770,7 +7779,7 @@
     </row>
     <row r="112" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112" s="1">
         <v>5</v>
@@ -7798,7 +7807,7 @@
         <v>11</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P112" s="1">
         <v>11</v>
@@ -7827,7 +7836,7 @@
     </row>
     <row r="113" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B113" s="1">
         <v>5</v>
@@ -7882,7 +7891,7 @@
     </row>
     <row r="114" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B114" s="1">
         <v>5</v>
@@ -7933,7 +7942,7 @@
     </row>
     <row r="115" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="1">
         <v>5</v>
@@ -7994,19 +8003,19 @@
     </row>
     <row r="116" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116" s="1">
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -8057,7 +8066,7 @@
     </row>
     <row r="117" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" s="1">
         <v>6</v>
@@ -8110,7 +8119,7 @@
     </row>
     <row r="118" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118" s="1">
         <v>6</v>
@@ -8165,7 +8174,7 @@
     </row>
     <row r="119" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B119" s="1">
         <v>6</v>
@@ -8222,7 +8231,7 @@
     </row>
     <row r="120" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" s="1">
         <v>6</v>
@@ -8281,7 +8290,7 @@
     </row>
     <row r="121" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="1">
         <v>6</v>
@@ -8338,7 +8347,7 @@
     </row>
     <row r="122" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B122" s="1">
         <v>6</v>
@@ -8393,7 +8402,7 @@
     </row>
     <row r="123" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1">
         <v>6</v>
@@ -8428,7 +8437,7 @@
         <v>19</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S123" s="1">
         <v>69</v>
@@ -8450,19 +8459,19 @@
     </row>
     <row r="124" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="1">
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -8487,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q124" s="1">
         <v>17</v>
@@ -8513,7 +8522,7 @@
     </row>
     <row r="125" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125" s="1">
         <v>6</v>
@@ -8566,7 +8575,7 @@
     </row>
     <row r="126" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="1">
         <v>6</v>
@@ -8629,7 +8638,7 @@
     </row>
     <row r="127" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B127" s="1">
         <v>6</v>
@@ -8684,7 +8693,7 @@
     </row>
     <row r="128" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B128" s="1">
         <v>6</v>
@@ -8692,7 +8701,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -8725,7 +8734,7 @@
     </row>
     <row r="129" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" s="1">
         <v>6</v>
@@ -8776,7 +8785,7 @@
     </row>
     <row r="130" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1">
         <v>6</v>
@@ -8827,7 +8836,7 @@
     </row>
     <row r="131" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="1">
         <v>6</v>
@@ -8888,7 +8897,7 @@
     </row>
     <row r="132" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" s="1">
         <v>6</v>
@@ -8941,7 +8950,7 @@
     </row>
     <row r="133" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B133" s="1">
         <v>6</v>
@@ -8998,7 +9007,7 @@
     </row>
     <row r="134" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B134" s="1">
         <v>6</v>
@@ -9028,16 +9037,16 @@
         <v>11</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S134" s="1">
         <v>69</v>
@@ -9065,7 +9074,7 @@
     </row>
     <row r="135" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="1">
         <v>6</v>
@@ -9074,7 +9083,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -9106,58 +9115,58 @@
     </row>
     <row r="136" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="1">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J136" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="M136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N136" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="O136" s="1">
         <v>55</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R136" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="S136" s="1">
         <v>67</v>
@@ -9187,7 +9196,7 @@
     </row>
     <row r="137" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B137" s="1">
         <v>7</v>
@@ -9236,7 +9245,7 @@
     </row>
     <row r="138" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" s="1">
         <v>7</v>
@@ -9246,22 +9255,22 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="J138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M138" s="1">
         <v>11</v>
@@ -9299,7 +9308,7 @@
     </row>
     <row r="139" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B139" s="1">
         <v>7</v>
@@ -9362,58 +9371,58 @@
     </row>
     <row r="140" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="1">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="1">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I140" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="K140" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N140" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="O140" s="1">
         <v>55</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S140" s="1">
         <v>67</v>
@@ -9443,7 +9452,7 @@
     </row>
     <row r="141" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141" s="1">
         <v>7</v>
@@ -9482,7 +9491,7 @@
     </row>
     <row r="142" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142" s="1">
         <v>7</v>
@@ -9491,25 +9500,25 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G142" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="J142" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M142" s="1">
         <v>15</v>
@@ -9547,7 +9556,7 @@
     </row>
     <row r="143" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="1">
         <v>7</v>
@@ -9556,25 +9565,25 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="K143" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M143" s="1">
         <v>11</v>
@@ -9595,7 +9604,7 @@
         <v>17</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
@@ -9614,7 +9623,7 @@
     </row>
     <row r="144" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" s="1">
         <v>7</v>
@@ -9630,10 +9639,10 @@
         <v>9</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M144" s="1">
         <v>11</v>
@@ -9673,7 +9682,7 @@
     </row>
     <row r="145" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1">
         <v>7</v>
@@ -9726,7 +9735,7 @@
     </row>
     <row r="146" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B146" s="1">
         <v>7</v>
@@ -9751,7 +9760,7 @@
         <v>9</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -9777,7 +9786,7 @@
     </row>
     <row r="147" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1">
         <v>7</v>
@@ -9791,16 +9800,16 @@
         <v>7</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M147" s="1">
         <v>11</v>
@@ -9836,7 +9845,7 @@
     </row>
     <row r="148" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="1">
         <v>7</v>
@@ -9845,7 +9854,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G148" s="1">
         <v>7</v>
@@ -9854,13 +9863,13 @@
         <v>7</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L148" s="1">
         <v>11</v>
@@ -9899,7 +9908,7 @@
     </row>
     <row r="149" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149" s="1">
         <v>7</v>
@@ -9962,7 +9971,7 @@
     </row>
     <row r="150" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B150" s="1">
         <v>7</v>
@@ -10015,7 +10024,7 @@
     </row>
     <row r="151" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B151" s="1">
         <v>7</v>
@@ -10068,7 +10077,7 @@
     </row>
     <row r="152" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B152" s="1">
         <v>7</v>
@@ -10093,7 +10102,7 @@
         <v>15</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1">
@@ -10117,7 +10126,7 @@
     </row>
     <row r="153" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B153" s="1">
         <v>7</v>
@@ -10126,7 +10135,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G153" s="1">
         <v>7</v>
@@ -10135,16 +10144,16 @@
         <v>9</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M153" s="1">
         <v>11</v>
@@ -10180,7 +10189,7 @@
     </row>
     <row r="154" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="1">
         <v>7</v>
@@ -10239,7 +10248,7 @@
     </row>
     <row r="155" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="1">
         <v>7</v>
@@ -10308,7 +10317,7 @@
     </row>
     <row r="156" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="1">
         <v>7</v>
@@ -10371,58 +10380,58 @@
     </row>
     <row r="157" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B157" s="1">
-        <v>7</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M157" s="1">
         <v>11</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O157" s="1">
         <v>55</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S157" s="1">
         <v>67</v>
@@ -10452,7 +10461,7 @@
     </row>
     <row r="158" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158" s="1">
         <v>7</v>
@@ -10511,58 +10520,58 @@
     </row>
     <row r="159" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K159" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B159" s="1">
-        <v>7</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="L159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N159" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="O159" s="1">
         <v>55</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S159" s="1">
         <v>67</v>
@@ -10592,58 +10601,58 @@
     </row>
     <row r="160" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B160" s="1">
-        <v>7</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K160" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J160" s="1" t="s">
+      <c r="L160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N160" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="O160" s="1">
         <v>55</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S160" s="1">
         <v>67</v>
@@ -10671,7 +10680,7 @@
     </row>
     <row r="161" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B161" s="1">
         <v>8</v>
@@ -10680,12 +10689,12 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J161" s="1">
         <v>15</v>
@@ -10730,7 +10739,7 @@
     </row>
     <row r="162" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B162" s="1">
         <v>8</v>
@@ -10761,19 +10770,19 @@
         <v>11</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q162" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R162" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="S162" s="1">
         <v>55</v>
@@ -10803,7 +10812,7 @@
     </row>
     <row r="163" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" s="1">
         <v>8</v>
@@ -10828,13 +10837,13 @@
         <v>11</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R163" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S163" s="1">
         <v>55</v>
@@ -10864,7 +10873,7 @@
     </row>
     <row r="164" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164" s="1">
         <v>8</v>
@@ -10874,18 +10883,18 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M164" s="1"/>
       <c r="N164" s="1">
@@ -10921,7 +10930,7 @@
     </row>
     <row r="165" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B165" s="1">
         <v>8</v>
@@ -10950,7 +10959,7 @@
         <v>19</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S165" s="1">
         <v>55</v>
@@ -10978,7 +10987,7 @@
     </row>
     <row r="166" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B166" s="1">
         <v>8</v>
@@ -10988,22 +10997,22 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H166" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I166" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="J166" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J166" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="K166" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="1">
@@ -11039,7 +11048,7 @@
     </row>
     <row r="167" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="1">
         <v>8</v>
@@ -11052,7 +11061,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K167" s="1">
         <v>11</v>
@@ -11096,7 +11105,7 @@
     </row>
     <row r="168" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="1">
         <v>8</v>
@@ -11127,19 +11136,19 @@
         <v>11</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S168" s="1">
         <v>55</v>
@@ -11169,7 +11178,7 @@
     </row>
     <row r="169" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B169" s="1">
         <v>8</v>
@@ -11204,13 +11213,13 @@
         <v>15</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R169" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S169" s="1">
         <v>55</v>
@@ -11240,7 +11249,7 @@
     </row>
     <row r="170" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B170" s="1">
         <v>8</v>
@@ -11303,7 +11312,7 @@
     </row>
     <row r="171" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B171" s="1">
         <v>8</v>
@@ -11311,10 +11320,10 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1">
@@ -11368,7 +11377,7 @@
     </row>
     <row r="172" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -11427,7 +11436,7 @@
     </row>
     <row r="173" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B173" s="1">
         <v>8</v>
@@ -11488,7 +11497,7 @@
     </row>
     <row r="174" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" s="1">
         <v>8</v>
@@ -11549,7 +11558,7 @@
     </row>
     <row r="175" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" s="1">
         <v>8</v>
@@ -11612,7 +11621,7 @@
     </row>
     <row r="176" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B176" s="1">
         <v>8</v>
@@ -11675,7 +11684,7 @@
     </row>
     <row r="177" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B177" s="1">
         <v>8</v>
@@ -11732,7 +11741,7 @@
     </row>
     <row r="178" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B178" s="1">
         <v>8</v>
@@ -11795,13 +11804,13 @@
     </row>
     <row r="179" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B179" s="1">
         <v>8</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -11860,7 +11869,7 @@
     </row>
     <row r="180" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B180" s="1">
         <v>8</v>
@@ -11923,7 +11932,7 @@
     </row>
     <row r="181" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B181" s="1">
         <v>8</v>
@@ -11980,7 +11989,7 @@
     </row>
     <row r="182" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B182" s="1">
         <v>8</v>
@@ -12041,7 +12050,7 @@
     </row>
     <row r="183" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" s="1">
         <v>8</v>
@@ -12104,7 +12113,7 @@
     </row>
     <row r="184" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B184" s="1">
         <v>8</v>
@@ -12167,7 +12176,7 @@
     </row>
     <row r="185" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B185" s="1">
         <v>8</v>
@@ -12226,7 +12235,7 @@
     </row>
     <row r="186" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B186" s="1">
         <v>8</v>
@@ -12289,7 +12298,7 @@
     </row>
     <row r="187" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B187" s="1">
         <v>8</v>
@@ -12352,7 +12361,7 @@
     </row>
     <row r="188" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B188" s="1">
         <v>8</v>
@@ -12362,22 +12371,22 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H188" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I188" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I188" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="J188" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M188" s="1">
         <v>67</v>
@@ -12415,7 +12424,7 @@
     </row>
     <row r="189" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B189" s="1">
         <v>8</v>
@@ -12426,13 +12435,13 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I189" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="J189" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K189" s="1">
         <v>11</v>
@@ -12476,7 +12485,7 @@
     </row>
     <row r="190" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B190" s="1">
         <v>8</v>
@@ -12537,7 +12546,7 @@
     </row>
     <row r="191" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B191" s="1">
         <v>8</v>
@@ -12598,7 +12607,7 @@
     </row>
     <row r="192" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="1">
         <v>8</v>
@@ -12661,7 +12670,7 @@
     </row>
     <row r="193" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B193" s="1">
         <v>8</v>
@@ -12724,7 +12733,7 @@
     </row>
     <row r="194" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B194" s="1">
         <v>8</v>
@@ -12783,7 +12792,7 @@
     </row>
     <row r="195" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B195" s="1">
         <v>8</v>
@@ -12834,7 +12843,7 @@
     </row>
     <row r="196" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B196" s="1">
         <v>8</v>
@@ -12893,7 +12902,7 @@
     </row>
     <row r="197" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B197" s="1">
         <v>8</v>
@@ -12952,7 +12961,7 @@
     </row>
     <row r="198" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B198" s="1">
         <v>8</v>
@@ -13011,7 +13020,7 @@
     </row>
     <row r="199" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B199" s="1">
         <v>8</v>
@@ -13072,7 +13081,7 @@
     </row>
     <row r="200" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B200" s="1">
         <v>8</v>
@@ -13135,7 +13144,7 @@
     </row>
     <row r="201" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B201" s="1">
         <v>8</v>
@@ -13198,7 +13207,7 @@
     </row>
     <row r="202" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B202" s="1">
         <v>8</v>
@@ -13261,7 +13270,7 @@
     </row>
     <row r="203" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B203" s="1">
         <v>8</v>
@@ -13322,7 +13331,7 @@
     </row>
     <row r="204" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1">
         <v>8</v>
@@ -13377,7 +13386,7 @@
     </row>
     <row r="205" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B205" s="1">
         <v>9</v>
@@ -13401,7 +13410,7 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -13422,7 +13431,7 @@
     </row>
     <row r="206" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B206" s="1">
         <v>9</v>
@@ -13479,7 +13488,7 @@
     </row>
     <row r="207" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B207" s="1">
         <v>9</v>
@@ -13536,7 +13545,7 @@
     </row>
     <row r="208" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B208" s="1">
         <v>9</v>
@@ -13601,7 +13610,7 @@
     </row>
     <row r="209" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B209" s="1">
         <v>9</v>
@@ -13656,7 +13665,7 @@
     </row>
     <row r="210" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B210" s="1">
         <v>9</v>
@@ -13697,7 +13706,7 @@
     </row>
     <row r="211" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B211" s="1">
         <v>9</v>
@@ -13750,7 +13759,7 @@
     </row>
     <row r="212" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B212" s="1">
         <v>9</v>
@@ -13789,7 +13798,7 @@
     </row>
     <row r="213" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B213" s="1">
         <v>9</v>
@@ -13830,31 +13839,31 @@
     </row>
     <row r="214" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B214" s="1">
         <v>9</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -13869,7 +13878,7 @@
         <v>11</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q214" s="1">
         <v>17</v>
@@ -13895,7 +13904,7 @@
     </row>
     <row r="215" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B215" s="1">
         <v>9</v>
@@ -13958,7 +13967,7 @@
     </row>
     <row r="216" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B216" s="1">
         <v>9</v>
@@ -14015,7 +14024,7 @@
     </row>
     <row r="217" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B217" s="1">
         <v>9</v>
@@ -14047,7 +14056,7 @@
         <v>11</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T217" s="1">
         <v>15</v>
@@ -14070,7 +14079,7 @@
     </row>
     <row r="218" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B218" s="1">
         <v>9</v>
@@ -14098,13 +14107,13 @@
         <v>11</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R218" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S218" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="S218" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
@@ -14123,7 +14132,7 @@
     </row>
     <row r="219" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B219" s="1">
         <v>10</v>
@@ -14180,22 +14189,22 @@
     </row>
     <row r="220" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B220" s="1">
         <v>10</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G220" s="1">
         <v>11</v>
@@ -14204,16 +14213,16 @@
         <v>11</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M220" s="1">
         <v>15</v>
@@ -14251,7 +14260,7 @@
     </row>
     <row r="221" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B221" s="1">
         <v>10</v>
@@ -14290,7 +14299,7 @@
     </row>
     <row r="222" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B222" s="1">
         <v>10</v>
@@ -14329,7 +14338,7 @@
     </row>
     <row r="223" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B223" s="1">
         <v>10</v>
@@ -14370,7 +14379,7 @@
     </row>
     <row r="224" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B224" s="1">
         <v>10</v>
@@ -14409,7 +14418,7 @@
     </row>
     <row r="225" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B225" s="1">
         <v>10</v>
@@ -14452,7 +14461,7 @@
     </row>
     <row r="226" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B226" s="1">
         <v>10</v>
@@ -14493,31 +14502,31 @@
     </row>
     <row r="227" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B227" s="1">
         <v>10</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="I227" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -14554,7 +14563,7 @@
     </row>
     <row r="228" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B228" s="1">
         <v>10</v>
@@ -14593,7 +14602,7 @@
     </row>
     <row r="229" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B229" s="1">
         <v>10</v>
@@ -14652,7 +14661,7 @@
     </row>
     <row r="230" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B230" s="1">
         <v>10</v>
@@ -14705,7 +14714,7 @@
     </row>
     <row r="231" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B231" s="1">
         <v>10</v>
@@ -14733,13 +14742,13 @@
         <v>17</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T231" s="1">
         <v>15</v>
       </c>
       <c r="U231" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V231" s="1">
         <v>55</v>
@@ -14760,22 +14769,22 @@
     </row>
     <row r="232" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B232" s="1">
         <v>10</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -14813,22 +14822,22 @@
     </row>
     <row r="233" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B233" s="1">
         <v>10</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G233" s="1">
         <v>11</v>
@@ -14837,16 +14846,16 @@
         <v>11</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M233" s="1">
         <v>15</v>
@@ -14884,7 +14893,7 @@
     </row>
     <row r="234" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B234" s="1">
         <v>10</v>
@@ -14927,7 +14936,7 @@
     </row>
     <row r="235" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B235" s="1">
         <v>10</v>
@@ -14938,7 +14947,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -14968,7 +14977,7 @@
     </row>
     <row r="236" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B236" s="1">
         <v>10</v>
@@ -15013,7 +15022,7 @@
     </row>
     <row r="237" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B237" s="1">
         <v>10</v>
@@ -15028,7 +15037,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M237" s="1">
         <v>9</v>
@@ -15068,7 +15077,7 @@
     </row>
     <row r="238" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B238" s="1">
         <v>10</v>
@@ -15127,7 +15136,7 @@
     </row>
     <row r="239" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B239" s="1">
         <v>10</v>
@@ -15166,7 +15175,7 @@
     </row>
     <row r="240" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B240" s="1">
         <v>10</v>
@@ -15205,7 +15214,7 @@
     </row>
     <row r="241" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B241" s="1">
         <v>10</v>
@@ -15244,7 +15253,7 @@
     </row>
     <row r="242" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B242" s="1">
         <v>11</v>
@@ -15283,7 +15292,7 @@
     </row>
     <row r="243" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B243" s="1">
         <v>11</v>
@@ -15295,25 +15304,25 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M243" s="1">
         <v>65</v>
       </c>
       <c r="N243" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O243" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="P243" s="1">
         <v>15</v>
@@ -15342,7 +15351,7 @@
     </row>
     <row r="244" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B244" s="1">
         <v>11</v>
@@ -15403,7 +15412,7 @@
     </row>
     <row r="245" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B245" s="1">
         <v>11</v>
@@ -15464,7 +15473,7 @@
     </row>
     <row r="246" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B246" s="1">
         <v>11</v>
@@ -15500,10 +15509,10 @@
         <v>17</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R246" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S246" s="1">
         <v>55</v>
@@ -15533,7 +15542,7 @@
     </row>
     <row r="247" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B247" s="1">
         <v>11</v>
@@ -15596,7 +15605,7 @@
     </row>
     <row r="248" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B248" s="1">
         <v>11</v>
@@ -15659,7 +15668,7 @@
     </row>
     <row r="249" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B249" s="1">
         <v>11</v>
@@ -15714,7 +15723,7 @@
     </row>
     <row r="250" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B250" s="1">
         <v>11</v>
@@ -15773,7 +15782,7 @@
     </row>
     <row r="251" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B251" s="1">
         <v>11</v>
@@ -15832,7 +15841,7 @@
     </row>
     <row r="252" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B252" s="1">
         <v>11</v>
@@ -15887,7 +15896,7 @@
     </row>
     <row r="253" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B253" s="1">
         <v>11</v>
@@ -15946,7 +15955,7 @@
     </row>
     <row r="254" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B254" s="1">
         <v>11</v>
@@ -16007,7 +16016,7 @@
     </row>
     <row r="255" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B255" s="1">
         <v>11</v>
@@ -16060,7 +16069,7 @@
     </row>
     <row r="256" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256" s="1">
         <v>11</v>
@@ -16111,7 +16120,7 @@
     </row>
     <row r="257" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B257" s="1">
         <v>11</v>
@@ -16156,7 +16165,7 @@
     </row>
     <row r="258" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B258" s="1">
         <v>11</v>
@@ -16195,7 +16204,7 @@
     </row>
     <row r="259" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B259" s="1">
         <v>11</v>
@@ -16246,7 +16255,7 @@
     </row>
     <row r="260" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B260" s="1">
         <v>11</v>
@@ -16305,7 +16314,7 @@
     </row>
     <row r="261" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" s="1">
         <v>11</v>
@@ -16366,7 +16375,7 @@
     </row>
     <row r="262" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B262" s="1">
         <v>11</v>
@@ -16417,7 +16426,7 @@
     </row>
     <row r="263" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B263" s="1">
         <v>11</v>
@@ -16478,7 +16487,7 @@
     </row>
     <row r="264" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B264" s="1">
         <v>11</v>
@@ -16514,10 +16523,10 @@
         <v>15</v>
       </c>
       <c r="Q264" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R264" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S264" s="1">
         <v>51</v>
@@ -16547,7 +16556,7 @@
     </row>
     <row r="265" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B265" s="1">
         <v>11</v>
@@ -16606,7 +16615,7 @@
     </row>
     <row r="266" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B266" s="1">
         <v>11</v>
@@ -16619,7 +16628,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K266" s="1">
         <v>11</v>
@@ -16663,7 +16672,7 @@
     </row>
     <row r="267" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B267" s="1">
         <v>11</v>
@@ -16722,7 +16731,7 @@
     </row>
     <row r="268" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B268" s="1">
         <v>11</v>
@@ -16781,7 +16790,7 @@
     </row>
     <row r="269" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B269" s="1">
         <v>11</v>
@@ -16826,7 +16835,7 @@
     </row>
     <row r="270" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B270" s="1">
         <v>11</v>
@@ -16849,7 +16858,7 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
       <c r="T270" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U270" s="1">
         <v>67</v>
@@ -16873,7 +16882,7 @@
     </row>
     <row r="271" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271" s="1">
         <v>11</v>
@@ -16894,16 +16903,16 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U271" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="S271" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T271" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U271" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="V271" s="1">
         <v>67</v>
@@ -16924,7 +16933,7 @@
     </row>
     <row r="272" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B272" s="1">
         <v>11</v>
@@ -16981,7 +16990,7 @@
     </row>
     <row r="273" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273" s="1">
         <v>11</v>
@@ -17004,7 +17013,7 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
       <c r="T273" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U273" s="1">
         <v>67</v>
@@ -17028,19 +17037,19 @@
     </row>
     <row r="274" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B274" s="1">
         <v>12</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E274" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -17061,10 +17070,10 @@
         <v>11</v>
       </c>
       <c r="P274" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q274" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="Q274" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="R274" s="1">
         <v>19</v>
@@ -17087,7 +17096,7 @@
     </row>
     <row r="275" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B275" s="1">
         <v>12</v>
@@ -17102,7 +17111,7 @@
         <v>7</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -17130,7 +17139,7 @@
     </row>
     <row r="276" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B276" s="1">
         <v>12</v>
@@ -17167,10 +17176,10 @@
         <v>11</v>
       </c>
       <c r="R276" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S276" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T276" s="1">
         <v>65</v>
@@ -17197,7 +17206,7 @@
     </row>
     <row r="277" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B277" s="1">
         <v>12</v>
@@ -17252,7 +17261,7 @@
     </row>
     <row r="278" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B278" s="1">
         <v>12</v>
@@ -17291,7 +17300,7 @@
     </row>
     <row r="279" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B279" s="1">
         <v>12</v>
@@ -17346,19 +17355,19 @@
     </row>
     <row r="280" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B280" s="1">
         <v>12</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -17379,7 +17388,7 @@
         <v>11</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q280" s="1">
         <v>19</v>
@@ -17405,7 +17414,7 @@
     </row>
     <row r="281" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B281" s="1">
         <v>12</v>
@@ -17460,7 +17469,7 @@
     </row>
     <row r="282" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B282" s="1">
         <v>12</v>
@@ -17475,13 +17484,13 @@
         <v>7</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M282" s="1">
         <v>9</v>
@@ -17523,7 +17532,7 @@
     </row>
     <row r="283" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B283" s="1">
         <v>12</v>
@@ -17578,7 +17587,7 @@
     </row>
     <row r="284" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B284" s="1">
         <v>12</v>
@@ -17627,7 +17636,7 @@
     </row>
     <row r="285" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B285" s="1">
         <v>12</v>
@@ -17692,31 +17701,31 @@
     </row>
     <row r="286" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B286" s="1">
         <v>13</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J286" s="1">
         <v>11</v>
@@ -17763,7 +17772,7 @@
     </row>
     <row r="287" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B287" s="1">
         <v>13</v>
@@ -17788,16 +17797,16 @@
         <v>9</v>
       </c>
       <c r="P287" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q287" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R287" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S287" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="S287" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="T287" s="1">
         <v>67</v>
@@ -17824,7 +17833,7 @@
     </row>
     <row r="288" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B288" s="1">
         <v>13</v>
@@ -17833,16 +17842,16 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J288" s="1">
         <v>11</v>
@@ -17887,22 +17896,22 @@
     </row>
     <row r="289" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B289" s="1">
         <v>13</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G289" s="1">
         <v>11</v>
@@ -17911,7 +17920,7 @@
         <v>11</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J289" s="1">
         <v>11</v>
@@ -17962,7 +17971,7 @@
     </row>
     <row r="290" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B290" s="1">
         <v>13</v>
@@ -18011,7 +18020,7 @@
     </row>
     <row r="291" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B291" s="1">
         <v>13</v>
@@ -18027,10 +18036,10 @@
         <v>7</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K291" s="1">
         <v>9</v>
@@ -18066,7 +18075,7 @@
         <v>17</v>
       </c>
       <c r="V291" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W291" s="1">
         <v>55</v>
@@ -18084,7 +18093,7 @@
     </row>
     <row r="292" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B292" s="1">
         <v>13</v>
@@ -18137,7 +18146,7 @@
     </row>
     <row r="293" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B293" s="1">
         <v>13</v>
@@ -18168,10 +18177,10 @@
         <v>17</v>
       </c>
       <c r="R293" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S293" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T293" s="1">
         <v>55</v>
@@ -18198,7 +18207,7 @@
     </row>
     <row r="294" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B294" s="1">
         <v>13</v>
@@ -18207,19 +18216,19 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K294" s="1">
         <v>9</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M294" s="1">
         <v>11</v>
@@ -18261,7 +18270,7 @@
     </row>
     <row r="295" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B295" s="1">
         <v>13</v>
@@ -18306,7 +18315,7 @@
     </row>
     <row r="296" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B296" s="1">
         <v>13</v>
@@ -18351,7 +18360,7 @@
     </row>
     <row r="297" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B297" s="1">
         <v>13</v>
@@ -18363,16 +18372,16 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K297" s="1">
         <v>11</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M297" s="1">
         <v>11</v>
@@ -18418,7 +18427,7 @@
     </row>
     <row r="298" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B298" s="1">
         <v>13</v>
@@ -18441,7 +18450,7 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U298" s="1"/>
       <c r="V298" s="1">
@@ -18463,58 +18472,58 @@
     </row>
     <row r="299" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B299" s="1">
         <v>13</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H299" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J299" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I299" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J299" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="K299" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O299" s="1">
         <v>55</v>
       </c>
       <c r="P299" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q299" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R299" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S299" s="1">
         <v>67</v>
@@ -18523,7 +18532,7 @@
         <v>17</v>
       </c>
       <c r="U299" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V299" s="1">
         <v>72</v>
@@ -18544,7 +18553,7 @@
     </row>
     <row r="300" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B300" s="1">
         <v>13</v>
@@ -18560,10 +18569,10 @@
         <v>7</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K300" s="1">
         <v>11</v>
@@ -18607,31 +18616,31 @@
     </row>
     <row r="301" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B301" s="1">
         <v>13</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J301" s="1">
         <v>11</v>
@@ -18682,7 +18691,7 @@
     </row>
     <row r="302" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B302" s="1">
         <v>13</v>
@@ -18696,16 +18705,16 @@
         <v>7</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K302" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M302" s="1">
         <v>11</v>
@@ -18747,7 +18756,7 @@
     </row>
     <row r="303" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B303" s="1">
         <v>13</v>
@@ -18790,7 +18799,7 @@
     </row>
     <row r="304" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B304" s="1">
         <v>13</v>
@@ -18835,34 +18844,34 @@
     </row>
     <row r="305" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B305" s="1">
         <v>13</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K305" s="1">
         <v>11</v>
@@ -18906,7 +18915,7 @@
     </row>
     <row r="306" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="1">
         <v>13</v>
@@ -18920,10 +18929,10 @@
         <v>9</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K306" s="1">
         <v>11</v>
@@ -18971,7 +18980,7 @@
     </row>
     <row r="307" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B307" s="1">
         <v>13</v>
@@ -18984,13 +18993,13 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M307" s="1">
         <v>9</v>
@@ -19028,7 +19037,7 @@
     </row>
     <row r="308" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B308" s="1">
         <v>15</v>
@@ -19093,7 +19102,7 @@
     </row>
     <row r="309" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B309" s="1">
         <v>15</v>
@@ -19134,7 +19143,7 @@
     </row>
     <row r="310" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B310" s="1">
         <v>15</v>
@@ -19187,7 +19196,7 @@
     </row>
     <row r="311" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B311" s="1">
         <v>15</v>
@@ -19250,7 +19259,7 @@
     </row>
     <row r="312" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B312" s="1">
         <v>15</v>
@@ -19313,7 +19322,7 @@
     </row>
     <row r="313" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B313" s="1">
         <v>15</v>
@@ -19372,19 +19381,19 @@
     </row>
     <row r="314" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B314" s="1">
         <v>15</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -19407,7 +19416,7 @@
         <v>11</v>
       </c>
       <c r="P314" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q314" s="1">
         <v>19</v>
@@ -19433,7 +19442,7 @@
     </row>
     <row r="315" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B315" s="1">
         <v>15</v>
@@ -19476,7 +19485,7 @@
     </row>
     <row r="316" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B316" s="1">
         <v>15</v>
@@ -19539,7 +19548,7 @@
     </row>
     <row r="317" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B317" s="1">
         <v>15</v>
@@ -19596,7 +19605,7 @@
     </row>
     <row r="318" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B318" s="1">
         <v>14</v>
@@ -19610,7 +19619,7 @@
     </row>
     <row r="319" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B319" s="1">
         <v>14</v>
@@ -19622,7 +19631,7 @@
     </row>
     <row r="320" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B320" s="1">
         <v>14</v>
@@ -19634,13 +19643,13 @@
     </row>
     <row r="321" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B321" s="1">
         <v>14</v>
       </c>
       <c r="T321" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U321">
         <v>65</v>
@@ -19654,7 +19663,7 @@
     </row>
     <row r="322" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B322" s="1">
         <v>14</v>
@@ -19665,7 +19674,7 @@
     </row>
     <row r="323" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B323" s="1">
         <v>14</v>
@@ -19676,13 +19685,13 @@
     </row>
     <row r="324" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B324" s="1">
         <v>14</v>
       </c>
       <c r="T324" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U324">
         <v>65</v>
@@ -19693,7 +19702,7 @@
     </row>
     <row r="325" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B325" s="1">
         <v>14</v>
@@ -19704,7 +19713,7 @@
     </row>
     <row r="326" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B326" s="1">
         <v>14</v>
@@ -19721,13 +19730,13 @@
     </row>
     <row r="327" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B327" s="1">
         <v>14</v>
       </c>
       <c r="T327" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U327">
         <v>65</v>
@@ -19741,7 +19750,7 @@
     </row>
     <row r="328" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B328" s="1">
         <v>14</v>
@@ -19752,7 +19761,7 @@
     </row>
     <row r="329" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B329" s="1">
         <v>14</v>
@@ -19772,7 +19781,7 @@
     </row>
     <row r="330" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B330" s="1">
         <v>14</v>
@@ -19786,7 +19795,7 @@
     </row>
     <row r="331" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B331" s="1">
         <v>16</v>
@@ -19797,7 +19806,7 @@
     </row>
     <row r="332" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B332" s="1">
         <v>16</v>
@@ -19808,7 +19817,7 @@
     </row>
     <row r="333" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B333" s="1">
         <v>16</v>
@@ -19819,7 +19828,7 @@
     </row>
     <row r="334" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B334" s="1">
         <v>16</v>
@@ -19830,7 +19839,7 @@
     </row>
     <row r="335" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B335" s="1">
         <v>16</v>
@@ -19841,7 +19850,7 @@
     </row>
     <row r="336" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B336" s="1">
         <v>16</v>
@@ -19852,7 +19861,7 @@
     </row>
     <row r="337" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B337" s="1">
         <v>16</v>
@@ -19863,7 +19872,7 @@
     </row>
     <row r="338" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B338" s="1">
         <v>16</v>
@@ -19874,7 +19883,7 @@
     </row>
     <row r="339" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B339" s="1">
         <v>16</v>
@@ -19885,7 +19894,7 @@
     </row>
     <row r="340" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B340" s="1">
         <v>16</v>
@@ -19896,7 +19905,7 @@
     </row>
     <row r="341" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B341" s="1">
         <v>16</v>
@@ -19907,7 +19916,7 @@
     </row>
     <row r="342" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B342" s="1">
         <v>16</v>
@@ -20584,7 +20593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20610,13 +20621,25 @@
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
